--- a/medicine/Enfance/L'Enfant_d'Hiroshima/L'Enfant_d'Hiroshima.xlsx
+++ b/medicine/Enfance/L'Enfant_d'Hiroshima/L'Enfant_d'Hiroshima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant_d%27Hiroshima</t>
+          <t>L'Enfant_d'Hiroshima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Enfant d'Hiroshima est une série de lettres entre une mère et son fils, Isoko et Ichirô Hatano, écrite entre 1944 et 1948 durant la Seconde Guerre mondiale. Le livre compte 79 échanges de lettres[1],[2]. Le livre a été illustré par Joan Schatzberg et la couverture est de Keleck.
+L'Enfant d'Hiroshima est une série de lettres entre une mère et son fils, Isoko et Ichirô Hatano, écrite entre 1944 et 1948 durant la Seconde Guerre mondiale. Le livre compte 79 échanges de lettres,. Le livre a été illustré par Joan Schatzberg et la couverture est de Keleck.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant_d%27Hiroshima</t>
+          <t>L'Enfant_d'Hiroshima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une histoire vraie : la correspondance entre Ichirô, élève au lycée de Tokyo, et Isoko, sa mère, qui vit à la campagne. Des lettres qui tissent un lien unique que la séparation rend encore plus fort. Touchante est la délicatesse maternelle qui respecte la liberté et la sensibilité de son fils à une époque aussi douloureuse que celle d'Hiroshima en temps de la guerre. Touchante  est la plume d'Ichirô quand il écrit : "Faites rage, lames et vents du monde impur, moi j'avance dans la vie, aux côtés de ma mère".
 </t>
